--- a/Archive copy/Structure Daily Checks.xlsx
+++ b/Archive copy/Structure Daily Checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/Archive copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{242F5991-7778-4552-AAA1-E1388B13A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{028CCAF7-8A0F-4F1B-9D31-E901DECE423F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{242F5991-7778-4552-AAA1-E1388B13A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EDCA1BB-E7C4-4BB5-8A9D-23294DB53230}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{395AD150-ECCE-4AB1-94B8-BBB68F896617}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{395AD150-ECCE-4AB1-94B8-BBB68F896617}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Archive folder</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Monthly Archive folder</t>
   </si>
   <si>
-    <t>Merged folders</t>
-  </si>
-  <si>
     <t>Index + Stock files generated by GIS</t>
   </si>
   <si>
@@ -96,6 +93,18 @@
   </si>
   <si>
     <t>Raw data files</t>
+  </si>
+  <si>
+    <t>Merged Stock + Index Files</t>
+  </si>
+  <si>
+    <t>What it saves</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
@@ -567,6 +576,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87690D53-DEA7-49F0-81BD-65302D0BF69C}">
-  <dimension ref="H2:J40"/>
+  <dimension ref="H2:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -898,83 +911,100 @@
     <col min="9" max="9" width="54.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="8:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="8:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H5" s="4"/>
       <c r="I5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H6" s="4"/>
       <c r="I6" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f>252*25</f>
+        <v>6300</v>
+      </c>
+      <c r="M6">
+        <f>L6/60</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="8:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H7" s="4"/>
       <c r="I7" s="12"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H8" s="4"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H10" s="4"/>
       <c r="I10" s="13" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H11" s="4"/>
       <c r="I11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H12" s="4"/>
       <c r="I12" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H15" s="4"/>
       <c r="I15" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H16" s="4"/>
       <c r="I16" s="11" t="s">
         <v>2</v>
@@ -984,7 +1014,7 @@
     <row r="17" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H17" s="4"/>
       <c r="I17" s="11" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1007,7 +1037,7 @@
     <row r="22" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H22" s="1"/>
       <c r="I22" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -1019,14 +1049,14 @@
     <row r="24" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H24" s="4"/>
       <c r="I24" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H25" s="4"/>
       <c r="I25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" s="6"/>
     </row>
@@ -1048,28 +1078,28 @@
     <row r="29" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H29" s="4"/>
       <c r="I29" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H30" s="4"/>
       <c r="I30" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H31" s="4"/>
       <c r="I31" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -1086,28 +1116,28 @@
     <row r="35" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H35" s="4"/>
       <c r="I35" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H36" s="4"/>
       <c r="I36" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H37" s="4"/>
       <c r="I37" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="8:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
       <c r="I38" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J38" s="6"/>
     </row>
